--- a/json2excel.xlsx
+++ b/json2excel.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NoneType</t>
+          <t>int</t>
         </is>
       </c>
     </row>

--- a/json2excel.xlsx
+++ b/json2excel.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="material" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mlist" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,17 +430,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -450,42 +450,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>sweetness</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>calorie</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>layer</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>add_y</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>it</t>
+          <t>value</t>
         </is>
       </c>
     </row>
@@ -507,197 +472,564 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>int</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>int</t>
+          <t>list</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>81001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>bc_combo_1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>666</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>colourful</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ruan</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>bc_cake_front</t>
+          <t>['white', 'white']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>81002</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>candy</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>27</v>
+          <t>bc_combo_2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>colourful</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>cui</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>bc_cake_center</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>222</v>
+          <t>['red', 'red']</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>81003</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>bc_combo_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>666</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>colourful</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ruan</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>['black', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bc_combo_4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['colourful', 'colourful']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bc_combo_5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['red', 'white']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bc_combo_6</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['white', 'red']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bc_combo_7</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['cream', 'fruit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bc_combo_8</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['fruit', 'cream']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bc_combo_9</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['choc', 'candy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bc_combo_10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['candy', 'choc']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bc_combo_11</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['strawberry，strawberry']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bc_combo_12</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['ruan', 'ruan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bc_combo_13</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['hua', 'hua']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bc_combo_14</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>15</v>
       </c>
-      <c r="I5" t="n">
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bc_combo_15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bc_combo_16</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>layer=3</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bc_combo_17</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>series=fruit</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bc_combo_18</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>temperature=cui</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bc_combo_19</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>color=colourful</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bc_combo_20</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>series=choc</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>bc_cake_front</t>
-        </is>
       </c>
     </row>
   </sheetData>
